--- a/predication.xlsx
+++ b/predication.xlsx
@@ -7826,7 +7826,7 @@
         <v>378.4</v>
       </c>
       <c r="AC79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -20660,7 +20660,7 @@
         <v>379.26</v>
       </c>
       <c r="AC217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -23078,7 +23078,7 @@
         <v>226.51</v>
       </c>
       <c r="AC243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -23822,7 +23822,7 @@
         <v>719.34</v>
       </c>
       <c r="AC251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -27077,7 +27077,7 @@
         <v>796.4</v>
       </c>
       <c r="AC286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -28844,7 +28844,7 @@
         <v>1966.66</v>
       </c>
       <c r="AC305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -28937,7 +28937,7 @@
         <v>0</v>
       </c>
       <c r="AC306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -32657,7 +32657,7 @@
         <v>0</v>
       </c>
       <c r="AC346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -33680,7 +33680,7 @@
         <v>758.6799999999999</v>
       </c>
       <c r="AC357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -41771,7 +41771,7 @@
         <v>270.33</v>
       </c>
       <c r="AC444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
@@ -50792,7 +50792,7 @@
         <v>2684.72</v>
       </c>
       <c r="AC541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
@@ -56930,7 +56930,7 @@
         <v>4826.74</v>
       </c>
       <c r="AC607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608">
@@ -57395,7 +57395,7 @@
         <v>0</v>
       </c>
       <c r="AC612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613">
@@ -65486,7 +65486,7 @@
         <v>2360.29</v>
       </c>
       <c r="AC699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700">
@@ -70415,7 +70415,7 @@
         <v>0</v>
       </c>
       <c r="AC752" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753">
@@ -70880,7 +70880,7 @@
         <v>0</v>
       </c>
       <c r="AC757" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758">
@@ -71066,7 +71066,7 @@
         <v>919.3200000000001</v>
       </c>
       <c r="AC759" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760">
@@ -78878,7 +78878,7 @@
         <v>16177.15</v>
       </c>
       <c r="AC843" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844">

--- a/predication.xlsx
+++ b/predication.xlsx
@@ -20660,7 +20660,7 @@
         <v>379.26</v>
       </c>
       <c r="AC217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -28937,7 +28937,7 @@
         <v>0</v>
       </c>
       <c r="AC306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -37493,7 +37493,7 @@
         <v>11752.36</v>
       </c>
       <c r="AC398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
@@ -57395,7 +57395,7 @@
         <v>0</v>
       </c>
       <c r="AC612" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613">
